--- a/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/maintenance.xlsx
+++ b/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/maintenance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保养周期（月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保养项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,32 @@
   </si>
   <si>
     <t>自制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养周期（周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养项类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围判断</t>
+  </si>
+  <si>
+    <t>结果值判断</t>
+  </si>
+  <si>
+    <t>理论值3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养项3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,12 +483,14 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,81 +504,131 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>20</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>"范围判断,结果值判断"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
